--- a/biology/Médecine/Odynophagie/Odynophagie.xlsx
+++ b/biology/Médecine/Odynophagie/Odynophagie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'odynophagie (du grec ancien ὀδύνη, odunê, « douleur » et φαγεῖν, phagein, « manger ») est une douleur pharyngée ou œsophagienne, lors de la déglutition, qui peut être due à des lésions dans l'œsophage[1], lors de la progression du bol alimentaire mais sans sensation de blocage.
+L'odynophagie (du grec ancien ὀδύνη, odunê, « douleur » et φαγεῖν, phagein, « manger ») est une douleur pharyngée ou œsophagienne, lors de la déglutition, qui peut être due à des lésions dans l'œsophage, lors de la progression du bol alimentaire mais sans sensation de blocage.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce symptôme s'observe notamment au cours d'une angine en raison de l'inflammation du pharynx.
-Il a parfois été signalé dans le cadre du syndrome inflammatoire multisystémique chez l'enfant (lié à la maladie à coronavirus 2019)[2] et serait typique des infections avec les variants Omicron[3].
+Il a parfois été signalé dans le cadre du syndrome inflammatoire multisystémique chez l'enfant (lié à la maladie à coronavirus 2019) et serait typique des infections avec les variants Omicron.
 </t>
         </is>
       </c>
